--- a/medicine/Mort/Terrorisme_en_2009/Terrorisme_en_2009.xlsx
+++ b/medicine/Mort/Terrorisme_en_2009/Terrorisme_en_2009.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chronologie du terrorisme
@@ -495,7 +507,7 @@
 2012
 2013
 ►►
-Durant l'année 2009, le nombre de victimes et d'attentats se stabilise. Il y a eu 9 271 personnes tuées dans 4 722 attentats[1].
+Durant l'année 2009, le nombre de victimes et d'attentats se stabilise. Il y a eu 9 271 personnes tuées dans 4 722 attentats.
 </t>
         </is>
       </c>
@@ -526,67 +538,411 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-1er janvier, Inde : triple attentat à Guwahati, la capitale de la province d'Assam, qui fait au moins 5 morts et 67 blessés, quelques heures avant la visite du Ministre de l'Intérieur Palaniappan Chidambaram (Parti du Congrès)[2].
-Février
-2 février, Afghanistan : attentat-suicide dans un centre de formation de la police du sud du pays. Au moins 21 policiers sont tués[3].
-5 février, Irak : attentat-suicide à Khanaqin, à 170 km au nord de Bagdad, dans la province de Diyala ; entre 12[4] et 15 morts[5].
-5 février, Pakistan : un attentat-suicide à Dera Ghazi Khan fait au moins 24 morts[6] (33 selon l'AFP[7]).
-9 février, Sri Lanka : attentat-suicide dans un camp de réfugiés dans le nord de l'île, 28 morts[8].
-13 février, Algérie : Double attentat à Foum-el-Metlag, près de la frontière tunisienne, 7 morts[9].
-22 février, Égypte : un engin artisanal posé sous un banc explose dans le quartier du vieux Caire tuant Cécile Vannier une Française de 17 ans et faisant 22 blessés[10].
-22 février, Somalie : à Mogadiscio, un attentat à la voiture-suicide contre des soldats de la paix de l'Union africaine tue 10 soldats ressortissants du Burundi ; il est revendiqué par les Shebabs[11].
-Mars
-3 mars, Pakistan : attaque à Lahore de l'équipe de cricket du Sri Lanka, 8 morts (6 policiers et 2 civils)[12].
-7 mars, Algérie : attentat-suicide devant le siège de la garde communale à Tadmaït, une localité située à 15 km de la ville de Tizi Ouzou. Un garde communal, une femme âgée et le kamikaze sont tués[13].
-7 mars, Irlande du Nord : une fusillade dans une caserne de l'armée britannique à Massereene (Antrim), revendiquée par l'IRA véritable, tue 2 soldats et blesse 4 autres personnes[14].
-10 mars, Irak : un attentat à la bombe à Bagdad fait 33 morts et 46 blessés[15].
-23 mars, Irak : un attentat-suicide à Jalula fait 25 morts et 45 blessés[16].
-27 mars, Pakistan : un attentat-suicide dans une mosquée située dans une zone tribale du nord-ouest du pays tue 50 personnes[17].
-30 mars, Pakistan : 12 morts lors de l'attaque d'une école de police à Lahore[18].
-Avril
-1er avril, Afghanistan : 11 personnes sont tuées dans une attaque suicide contre l'immeuble abritant l'assemblée provinciale au centre de la ville de Kandahar, dans le sud de l'Afghanistan, rapporte le ministère de l'Intérieur[19].
-4 avril, Pakistan : un kamikaze tue 6 membres des forces de sécurité en se faisant exploser l'intérieur d'une base abritant des membres de forces paramilitaires au cœur d'Islamabad, la capitale pakistanaise, selon les autorités[20].
-5 avril, Pakistan : un kamikaze se fait exploser dans une mosquée chiite au sud d'Islamabad, la capitale pakistanaise, faisant 22 morts et plusieurs dizaines de blessés, selon les autorités[21].
-Mai
-20 mai, Algérie : cinq gendarmes algériens meurent dans une embuscade[22].
-22 mai, Pakistan : une voiture piégée fait sept morts à Peshawar[23].
-23 mai, Népal : une bombe explose en faisant deux morts et quinze blessés à Katmandou[24].
-25 mai, Algérie : 8 militaires algériens meurent dans une embuscade[25].
-26 mai, Afghanistan : une bombe fait six morts, dont trois civils, près de Bagram[26].
-26 mai, Ouzbékistan : un attentat suicide tue un policier à Andijan[27].
-27 mai, Pakistan : un attentat suicide à la voiture piégée fait 24 morts à Lahore, revendiqué par les talibans[28],[29].
-Juin
-9 juin, Pakistan : un attentat suicide contre l'hôtel Pearl Continental à Peshawar fait 17 morts et 52 blessés[30]. (voir l'article Attentat du Pearl Continental de Peshawar du 9 juin 2009 pour plus de détails)
-21 juin, Irak : attentat-suicide à Taza, région turcomane, près de Kirkouk. 72 morts et plus de 200 blessés. Attentat le plus meurtrier depuis 18 mois[31].
-Juillet
-17 juillet, Indonésie : 3 attentats (deux contre des hôtels, un contre un péage d'autoroute) font 9 morts et une dizaine de blessés[32].
-26 juillet, Tchétchénie : un attentat-suicide devant une salle de concert de Grozny tue cinq policiers ainsi que le kamikaze[33].
-30 juillet, Espagne : un attentat à la voiture piégée commis par l'ETA tue deux policiers sur l'île de Majorque[34]. (voir l'article Attentat de 2009 à Majorque pour plus de détails)
-Août
-10 août, Irak : un attentat à la bombe près de Mossoul fait 46 morts et plus de 100 blessés[35].
-Septembre
-Octobre
-9 octobre, Pakistan : un attentat à la bombe à Peshawar fait 41 morts et plus de 100 blessés[36].
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er janvier, Inde : triple attentat à Guwahati, la capitale de la province d'Assam, qui fait au moins 5 morts et 67 blessés, quelques heures avant la visite du Ministre de l'Intérieur Palaniappan Chidambaram (Parti du Congrès).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 février, Afghanistan : attentat-suicide dans un centre de formation de la police du sud du pays. Au moins 21 policiers sont tués.
+5 février, Irak : attentat-suicide à Khanaqin, à 170 km au nord de Bagdad, dans la province de Diyala ; entre 12 et 15 morts.
+5 février, Pakistan : un attentat-suicide à Dera Ghazi Khan fait au moins 24 morts (33 selon l'AFP).
+9 février, Sri Lanka : attentat-suicide dans un camp de réfugiés dans le nord de l'île, 28 morts.
+13 février, Algérie : Double attentat à Foum-el-Metlag, près de la frontière tunisienne, 7 morts.
+22 février, Égypte : un engin artisanal posé sous un banc explose dans le quartier du vieux Caire tuant Cécile Vannier une Française de 17 ans et faisant 22 blessés.
+22 février, Somalie : à Mogadiscio, un attentat à la voiture-suicide contre des soldats de la paix de l'Union africaine tue 10 soldats ressortissants du Burundi ; il est revendiqué par les Shebabs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 mars, Pakistan : attaque à Lahore de l'équipe de cricket du Sri Lanka, 8 morts (6 policiers et 2 civils).
+7 mars, Algérie : attentat-suicide devant le siège de la garde communale à Tadmaït, une localité située à 15 km de la ville de Tizi Ouzou. Un garde communal, une femme âgée et le kamikaze sont tués.
+7 mars, Irlande du Nord : une fusillade dans une caserne de l'armée britannique à Massereene (Antrim), revendiquée par l'IRA véritable, tue 2 soldats et blesse 4 autres personnes.
+10 mars, Irak : un attentat à la bombe à Bagdad fait 33 morts et 46 blessés.
+23 mars, Irak : un attentat-suicide à Jalula fait 25 morts et 45 blessés.
+27 mars, Pakistan : un attentat-suicide dans une mosquée située dans une zone tribale du nord-ouest du pays tue 50 personnes.
+30 mars, Pakistan : 12 morts lors de l'attaque d'une école de police à Lahore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er avril, Afghanistan : 11 personnes sont tuées dans une attaque suicide contre l'immeuble abritant l'assemblée provinciale au centre de la ville de Kandahar, dans le sud de l'Afghanistan, rapporte le ministère de l'Intérieur.
+4 avril, Pakistan : un kamikaze tue 6 membres des forces de sécurité en se faisant exploser l'intérieur d'une base abritant des membres de forces paramilitaires au cœur d'Islamabad, la capitale pakistanaise, selon les autorités.
+5 avril, Pakistan : un kamikaze se fait exploser dans une mosquée chiite au sud d'Islamabad, la capitale pakistanaise, faisant 22 morts et plusieurs dizaines de blessés, selon les autorités.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>20 mai, Algérie : cinq gendarmes algériens meurent dans une embuscade.
+22 mai, Pakistan : une voiture piégée fait sept morts à Peshawar.
+23 mai, Népal : une bombe explose en faisant deux morts et quinze blessés à Katmandou.
+25 mai, Algérie : 8 militaires algériens meurent dans une embuscade.
+26 mai, Afghanistan : une bombe fait six morts, dont trois civils, près de Bagram.
+26 mai, Ouzbékistan : un attentat suicide tue un policier à Andijan.
+27 mai, Pakistan : un attentat suicide à la voiture piégée fait 24 morts à Lahore, revendiqué par les talibans,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9 juin, Pakistan : un attentat suicide contre l'hôtel Pearl Continental à Peshawar fait 17 morts et 52 blessés. (voir l'article Attentat du Pearl Continental de Peshawar du 9 juin 2009 pour plus de détails)
+21 juin, Irak : attentat-suicide à Taza, région turcomane, près de Kirkouk. 72 morts et plus de 200 blessés. Attentat le plus meurtrier depuis 18 mois.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>17 juillet, Indonésie : 3 attentats (deux contre des hôtels, un contre un péage d'autoroute) font 9 morts et une dizaine de blessés.
+26 juillet, Tchétchénie : un attentat-suicide devant une salle de concert de Grozny tue cinq policiers ainsi que le kamikaze.
+30 juillet, Espagne : un attentat à la voiture piégée commis par l'ETA tue deux policiers sur l'île de Majorque. (voir l'article Attentat de 2009 à Majorque pour plus de détails)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>10 août, Irak : un attentat à la bombe près de Mossoul fait 46 morts et plus de 100 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9 octobre, Pakistan : un attentat à la bombe à Peshawar fait 41 morts et plus de 100 blessés.
 9 octobre, Afghanistan: Un attentat suicide à la bombe visant l'ambassade d'Inde à Kaboul fait 17 mort et 63 blessés.
-12 octobre, Pakistan : un attentat suicide à Shangla fait 41 morts et de nombreux blessés[37].
-18 octobre, Iran : un attentat à Pishin fait 31 morts et 25 blessés[38].
-25 octobre, Irak : un attentat à la voiture piégée à Bagdad fait 155 morts et plus de 520 blessés[39].
-28 octobre, Pakistan : un attentat à la voiture piégée à Peshawar fait 117 morts et plus de 200 blessés[40].
-Novembre
-2 novembre, Pakistan : deux attentats-suicides à Rawalpindi font 35 morts et 60 blessés[41].
-10 novembre, Pakistan : un attentat à la voiture piégée à Charsadda fait 24 morts et 100 blessés[42].
-13 novembre, Pakistan : un attentat suicide à Peshawar contre le quartier-générale du Inter-Services Intelligence fait 17 morts et 56 blessés[43].
-19 novembre, Pakistan : un attentat à la bombe à Peshawar fait 19 morts et 51 blessés[44].
-Décembre
-3 décembre, Somalie : un attentat suicide a fait au moins 19 morts dont trois ministres à Mogadiscio[45].
-4 décembre, Pakistan : quatre hommes armés attaquent une mosquée à Rawalpindi faisant 38 morts et 80 blessés[46]. (voir l'article Attentat du 4 décembre 2009 à Rawalpindi pour plus de détails)
-7 décembre, Pakistan : un attentat à la bombe à Lahore fait 48 morts et 100 blessés[47].
-8 décembre, Irak : une série d'attentats à la bombe à Bagdad fait 127 morts et 448 blessés[48].
-15 décembre, Pakistan : un attentat à la bombe à Dera Ghazi Khan fait 33 morts et 50 blessés[49].
-24 décembre, Irak : un attentat à la bombe à Hilla fait 23 morts[50].
-28 décembre, Pakistan : un attentat suicide à Karachi fait 43 morts et 60 blessés[51].
-30 décembre, Afghanistan : attentat-suicide contre une base américaine à Khost, faisant 10 morts et 6 blessés[52]. (voir l'article Attentat-suicide de la base de Chapman du 30 décembre 2009 pour plus de détails)</t>
+12 octobre, Pakistan : un attentat suicide à Shangla fait 41 morts et de nombreux blessés.
+18 octobre, Iran : un attentat à Pishin fait 31 morts et 25 blessés.
+25 octobre, Irak : un attentat à la voiture piégée à Bagdad fait 155 morts et plus de 520 blessés.
+28 octobre, Pakistan : un attentat à la voiture piégée à Peshawar fait 117 morts et plus de 200 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 novembre, Pakistan : deux attentats-suicides à Rawalpindi font 35 morts et 60 blessés.
+10 novembre, Pakistan : un attentat à la voiture piégée à Charsadda fait 24 morts et 100 blessés.
+13 novembre, Pakistan : un attentat suicide à Peshawar contre le quartier-générale du Inter-Services Intelligence fait 17 morts et 56 blessés.
+19 novembre, Pakistan : un attentat à la bombe à Peshawar fait 19 morts et 51 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2009</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3 décembre, Somalie : un attentat suicide a fait au moins 19 morts dont trois ministres à Mogadiscio.
+4 décembre, Pakistan : quatre hommes armés attaquent une mosquée à Rawalpindi faisant 38 morts et 80 blessés. (voir l'article Attentat du 4 décembre 2009 à Rawalpindi pour plus de détails)
+7 décembre, Pakistan : un attentat à la bombe à Lahore fait 48 morts et 100 blessés.
+8 décembre, Irak : une série d'attentats à la bombe à Bagdad fait 127 morts et 448 blessés.
+15 décembre, Pakistan : un attentat à la bombe à Dera Ghazi Khan fait 33 morts et 50 blessés.
+24 décembre, Irak : un attentat à la bombe à Hilla fait 23 morts.
+28 décembre, Pakistan : un attentat suicide à Karachi fait 43 morts et 60 blessés.
+30 décembre, Afghanistan : attentat-suicide contre une base américaine à Khost, faisant 10 morts et 6 blessés. (voir l'article Attentat-suicide de la base de Chapman du 30 décembre 2009 pour plus de détails)</t>
         </is>
       </c>
     </row>
